--- a/doc/SMS.XLSX
+++ b/doc/SMS.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>Website</t>
   </si>
@@ -207,6 +207,63 @@
   </si>
   <si>
     <t>sender name</t>
+  </si>
+  <si>
+    <t>dystr1</t>
+  </si>
+  <si>
+    <t>dystr2</t>
+  </si>
+  <si>
+    <t>dystr3</t>
+  </si>
+  <si>
+    <t>dyfeild1</t>
+  </si>
+  <si>
+    <t>dyfeild2</t>
+  </si>
+  <si>
+    <t>dyfeild3</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>dynamic string 1</t>
+  </si>
+  <si>
+    <t>dynamic string 2</t>
+  </si>
+  <si>
+    <t>dynamic string 3</t>
+  </si>
+  <si>
+    <t>dynamic feild 1</t>
+  </si>
+  <si>
+    <t>dynamic feild 2</t>
+  </si>
+  <si>
+    <t>dynamic feild 3</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>success / fail</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>detail of result</t>
+  </si>
+  <si>
+    <t>success_on</t>
+  </si>
+  <si>
+    <t>date time success</t>
   </si>
 </sst>
 </file>
@@ -280,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -360,11 +417,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,6 +471,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3105,7 +3187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J11:K11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -3128,16 +3210,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C30"/>
+  <dimension ref="A4:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9" style="19"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="44.25" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="3.375" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3146,7 +3232,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -3157,7 +3243,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -3183,85 +3269,181 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="B22" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E22" s="13"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="B23" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E23" s="13"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="17"/>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="18"/>
-      <c r="C30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="17"/>
+      <c r="C31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="17"/>
+      <c r="C32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="17"/>
+      <c r="C33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="18"/>
+      <c r="C34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3272,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/SMS.XLSX
+++ b/doc/SMS.XLSX
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="2" r:id="rId1"/>
-    <sheet name="Website" sheetId="3" r:id="rId2"/>
-    <sheet name="Service" sheetId="4" r:id="rId3"/>
-    <sheet name="Table Structure" sheetId="5" r:id="rId4"/>
+    <sheet name="Flow" sheetId="6" r:id="rId2"/>
+    <sheet name="Website" sheetId="3" r:id="rId3"/>
+    <sheet name="Service" sheetId="4" r:id="rId4"/>
+    <sheet name="Table Structure" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Website</t>
   </si>
@@ -172,99 +173,6 @@
   <si>
     <t>ไม่ต้องสร้าง</t>
   </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>meaning</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url </t>
-  </si>
-  <si>
-    <t xml:space="preserve">method </t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>phone no.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https:cola.haadthip.com/esb/service/sms.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GET / POST</t>
-  </si>
-  <si>
-    <t>s_name</t>
-  </si>
-  <si>
-    <t>sender name</t>
-  </si>
-  <si>
-    <t>dystr1</t>
-  </si>
-  <si>
-    <t>dystr2</t>
-  </si>
-  <si>
-    <t>dystr3</t>
-  </si>
-  <si>
-    <t>dyfeild1</t>
-  </si>
-  <si>
-    <t>dyfeild2</t>
-  </si>
-  <si>
-    <t>dyfeild3</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>dynamic string 1</t>
-  </si>
-  <si>
-    <t>dynamic string 2</t>
-  </si>
-  <si>
-    <t>dynamic string 3</t>
-  </si>
-  <si>
-    <t>dynamic feild 1</t>
-  </si>
-  <si>
-    <t>dynamic feild 2</t>
-  </si>
-  <si>
-    <t>dynamic feild 3</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>success / fail</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>detail of result</t>
-  </si>
-  <si>
-    <t>success_on</t>
-  </si>
-  <si>
-    <t>date time success</t>
-  </si>
 </sst>
 </file>
 
@@ -305,7 +213,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +244,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -360,88 +286,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,26 +305,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,15 +331,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>268315</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>55660</xdr:rowOff>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>656338</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>102077</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -515,8 +348,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1635433" y="772836"/>
-          <a:ext cx="1755140" cy="225712"/>
+          <a:off x="1828799" y="1314449"/>
+          <a:ext cx="1152526" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -524,14 +357,6 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -553,15 +378,84 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>รูปแบบการส่ง</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ส่งทันที</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> only</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="th-TH" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>เบอร์โทร</a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>check_data.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -569,26 +463,3103 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>443556</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228021</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>98165</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="4953000"/>
+          <a:ext cx="1019176" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รูปแบบการส่ง</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-Batch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> only</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>presend.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="th-TH" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561973</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362573" y="4705349"/>
+          <a:ext cx="2552701" cy="1114426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ดึง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>User list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จากระบบ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2) Sender name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เตรียม </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Message</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      3.1) Dynamic message 3 fields</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>smsservice.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638173</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381373" y="4829176"/>
+          <a:ext cx="1333502" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ตรวจสอบโควต้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> และ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Status message</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>presend.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505824" y="266700"/>
+          <a:ext cx="1085851" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMS Provider</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638173</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781301" y="5257800"/>
+          <a:ext cx="600072" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561973</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="5257801"/>
+          <a:ext cx="647698" cy="4761"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8867774" y="2971799"/>
+          <a:ext cx="1447802" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ส่งข้อความถึงลูกค้า</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915274" y="5262562"/>
+          <a:ext cx="952500" cy="300038"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="378758" cy="271356"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127115" y="745751"/>
-          <a:ext cx="468024" cy="248885"/>
+          <a:off x="2933700" y="2486025"/>
+          <a:ext cx="378758" cy="271356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="435440" cy="271356"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="2486025"/>
+          <a:ext cx="435440" cy="271356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Pass</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638173</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381373" y="6257924"/>
+          <a:ext cx="1333502" cy="647701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>อัพเดท </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Message status</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>presend.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400799" y="6400799"/>
+          <a:ext cx="1447802" cy="628651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>อัพเดท </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Status </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>และ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>โควต้า</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>smsservice.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+          <a:endCxn id="33" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7848601" y="5562600"/>
+          <a:ext cx="1019173" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048124" y="5686426"/>
+          <a:ext cx="0" cy="571498"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="905056" cy="262572"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="TextBox 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="5857875"/>
+          <a:ext cx="905056" cy="262572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>โควต้าไม่พอ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="56" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4048124" y="4505325"/>
+          <a:ext cx="4763" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629023" y="4238625"/>
+          <a:ext cx="847727" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>หยุดส่ง</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810991" cy="271356"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="TextBox 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="4514850"/>
+          <a:ext cx="810991" cy="271356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> "active"</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>521463</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166581</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="Group 62"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="123825" y="4829176"/>
+          <a:ext cx="1083438" cy="957155"/>
+          <a:chOff x="123825" y="2466976"/>
+          <a:chExt cx="1083438" cy="957155"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 5"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="352425" y="2466976"/>
+            <a:ext cx="651318" cy="857250"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="TextBox 61"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="123825" y="3152775"/>
+            <a:ext cx="1083438" cy="271356"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Minute</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> task job</a:t>
+            </a:r>
+            <a:endParaRPr lang="th-TH" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317943</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1003743" y="5257800"/>
+          <a:ext cx="758382" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628112</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="68" name="Group 67"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="133350" y="1276350"/>
+          <a:ext cx="1180562" cy="1219200"/>
+          <a:chOff x="381000" y="1390650"/>
+          <a:chExt cx="1180562" cy="1219200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="69" name="Picture 68"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="400050" y="1390650"/>
+            <a:ext cx="1161512" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="TextBox 69"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="381000" y="2124076"/>
+            <a:ext cx="1083438" cy="485774"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>SMS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> Website</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="th-TH" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628112</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1313912" y="1633537"/>
+          <a:ext cx="514887" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533398</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rectangle 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5333998" y="971549"/>
+          <a:ext cx="2552701" cy="1123951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ดึง</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>User list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จากระบบ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2) Sender name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เตรียม </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Message</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      3.1) Dynamic message 3 fields</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>smsservice.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="93" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="1624012"/>
+          <a:ext cx="447675" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Straight Arrow Connector 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="3"/>
+          <a:endCxn id="87" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886699" y="1533525"/>
+          <a:ext cx="619125" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Rectangle 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505824" y="2009774"/>
+          <a:ext cx="1447802" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ส่งข้อความถึงลูกค้า</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47627</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rectangle 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="2971799"/>
+          <a:ext cx="1447802" cy="704851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>อัพเดท </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Status </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>และ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>โควต้า</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>smsservice.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47627</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="1"/>
+          <a:endCxn id="90" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7591427" y="2238375"/>
+          <a:ext cx="914397" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190683</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="92" name="Group 91"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3409950" y="542925"/>
+          <a:ext cx="1581333" cy="2724151"/>
+          <a:chOff x="3429000" y="1695450"/>
+          <a:chExt cx="1581333" cy="2724151"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="Rectangle 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3448050" y="2343150"/>
+            <a:ext cx="1333502" cy="895350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="th-TH" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ตรวจสอบโควต้า</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> และ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Status message</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>presend.php</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="Rectangle 93"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3429000" y="3790949"/>
+            <a:ext cx="1333502" cy="628652"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="th-TH" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>อัพเดท </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Message status</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>presend.php</a:t>
+            </a:r>
+            <a:endParaRPr lang="th-TH">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="95" name="Straight Arrow Connector 94"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="93" idx="2"/>
+            <a:endCxn id="94" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4095751" y="3238500"/>
+            <a:ext cx="19050" cy="552449"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="TextBox 95"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4105277" y="3381375"/>
+            <a:ext cx="905056" cy="262572"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="th-TH" sz="1100"/>
+              <a:t>โควต้าไม่พอ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="Rectangle 96"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3686175" y="1695450"/>
+            <a:ext cx="847727" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="th-TH" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>หยุดส่ง</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="TextBox 97"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4076702" y="2009775"/>
+            <a:ext cx="810991" cy="271356"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>&lt;&gt;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> "active"</a:t>
+            </a:r>
+            <a:endParaRPr lang="th-TH" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661989</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Arrow Connector 104"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="0"/>
+          <a:endCxn id="97" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4090989" y="809625"/>
+          <a:ext cx="4762" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647702</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533398</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Arrow Connector 107"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="3"/>
+          <a:endCxn id="80" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4762502" y="1533525"/>
+          <a:ext cx="571496" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Rectangle 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905624" y="266700"/>
+          <a:ext cx="1085851" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Haadthip</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333377</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Rectangle 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="2486025"/>
+          <a:ext cx="1333502" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>บันทึกลงระบบ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>check_data.php</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Straight Arrow Connector 114"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="114" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2405062" y="1933574"/>
+          <a:ext cx="4764" cy="552451"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="TextBox 117"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="1333499"/>
+          <a:ext cx="409575" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -616,9 +3587,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>เบอร์</a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -626,26 +3598,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>49183</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>287848</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>118774</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="119" name="TextBox 118"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="1124948"/>
-          <a:ext cx="988216" cy="248885"/>
+          <a:off x="2381250" y="2200274"/>
+          <a:ext cx="409575" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -673,36 +3645,42 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>เบอร์แบบกลุ่ม</a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>210769</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>87750</xdr:rowOff>
+      <xdr:colOff>268315</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>55660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>298872</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>30930</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>656338</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>102077</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1577887" y="2777162"/>
-          <a:ext cx="2138779" cy="839650"/>
+          <a:off x="1635433" y="772836"/>
+          <a:ext cx="1755140" cy="225712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,29 +3724,8 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>กรุณายืนยัน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ref: XXXX Code:YYYYY</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>เบอร์โทร</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -777,25 +3734,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>184601</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>33579</xdr:rowOff>
+      <xdr:colOff>443556</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>195815</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>111496</xdr:rowOff>
+      <xdr:colOff>228021</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>98165</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="868160" y="2722991"/>
-          <a:ext cx="694773" cy="257211"/>
+          <a:off x="1127115" y="745751"/>
+          <a:ext cx="468024" cy="248885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,10 +3780,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Message</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100"/>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>เบอร์</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -834,103 +3790,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>130619</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>78722</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>518642</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>125140</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>287848</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4915531" y="2768134"/>
-          <a:ext cx="1755140" cy="225712"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>XXXX</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>653736</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>78722</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>77139</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>156639</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071530" y="2768134"/>
-          <a:ext cx="790521" cy="257211"/>
+          <a:off x="666750" y="1124948"/>
+          <a:ext cx="988216" cy="248885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,14 +3837,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Dynamic</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> 1</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100"/>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>เบอร์แบบกลุ่ม</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -973,26 +3847,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>130619</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>18074</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>210769</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>518642</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>64492</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>298872</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4915531" y="3066074"/>
-          <a:ext cx="1755140" cy="225712"/>
+          <a:off x="1577887" y="2777162"/>
+          <a:ext cx="2138779" cy="839650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1031,12 +3905,28 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="th-TH" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>YYYYY</a:t>
+            <a:t>กรุณายืนยัน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ref: XXXX Code:YYYYY</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1100">
             <a:solidFill>
@@ -1050,103 +3940,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>121028</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>136721</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>184601</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>509051</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3845</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>195815</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111496</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4905940" y="3364015"/>
-          <a:ext cx="1755140" cy="225712"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>opt3</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>663327</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9046</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>86730</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>86963</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4081121" y="3057046"/>
-          <a:ext cx="790521" cy="257211"/>
+          <a:off x="868160" y="2722991"/>
+          <a:ext cx="694773" cy="257211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,11 +3988,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Dynamic</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> 2</a:t>
+            <a:t>Message</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1100"/>
         </a:p>
@@ -1189,25 +3998,102 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130619</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518642</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4915531" y="2768134"/>
+          <a:ext cx="1755140" cy="225712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XXXX</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>653736</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109635</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>77139</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>8258</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071530" y="3336929"/>
+          <a:off x="4071530" y="2768134"/>
           <a:ext cx="790521" cy="257211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1241,7 +4127,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> 3</a:t>
+            <a:t> 1</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1100"/>
         </a:p>
@@ -1251,25 +4137,179 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130619</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>18074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>681689</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60665</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>105092</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>138582</xdr:rowOff>
+      <xdr:colOff>518642</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>64492</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4915531" y="3066074"/>
+          <a:ext cx="1755140" cy="225712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YYYYY</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121028</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>509051</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4905940" y="3364015"/>
+          <a:ext cx="1755140" cy="225712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>opt3</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>663327</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>86730</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6833718" y="2750077"/>
+          <a:off x="4081121" y="3057046"/>
           <a:ext cx="790521" cy="257211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1303,7 +4343,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> 1</a:t>
+            <a:t> 2</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1100"/>
         </a:p>
@@ -1313,25 +4353,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7721</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>170283</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>653736</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114683</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>68906</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>77139</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8258</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6843309" y="3038989"/>
+          <a:off x="4071530" y="3336929"/>
           <a:ext cx="790521" cy="257211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1365,7 +4405,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> 2</a:t>
+            <a:t> 3</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1100"/>
         </a:p>
@@ -1377,23 +4417,23 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>681689</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>91578</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>105092</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>169495</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138582</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6833718" y="3318872"/>
+          <a:off x="6833718" y="2750077"/>
           <a:ext cx="790521" cy="257211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1427,6 +4467,130 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7721</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>170283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114683</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6843309" y="3038989"/>
+          <a:ext cx="790521" cy="257211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Dynamic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>681689</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>105092</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169495</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6833718" y="3318872"/>
+          <a:ext cx="790521" cy="257211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Dynamic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> 3</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1100"/>
@@ -1669,13 +4833,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>180093</xdr:colOff>
+      <xdr:colOff>191300</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:rowOff>103254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>576121</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>149672</xdr:rowOff>
     </xdr:to>
@@ -1686,8 +4850,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1547211" y="3832412"/>
-          <a:ext cx="2005053" cy="261731"/>
+          <a:off x="1558418" y="3868430"/>
+          <a:ext cx="1751938" cy="225713"/>
           <a:chOff x="1674478" y="3981290"/>
           <a:chExt cx="1745536" cy="223311"/>
         </a:xfrm>
@@ -1797,15 +4961,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>176351</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>146982</xdr:rowOff>
+      <xdr:colOff>176352</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>136070</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1814,8 +4978,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543469" y="4091453"/>
-          <a:ext cx="2010395" cy="3987988"/>
+          <a:off x="1543470" y="4125069"/>
+          <a:ext cx="2010395" cy="2710519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1874,95 +5038,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>service </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>batch_1m </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>batch_15m </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>batch_30m </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>batch_1hr </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>batch_3hr </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>batch_6hr </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>batch_12hr </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>batch_day_2400 batch_workday_1m batch_workday_15m batch_workday_30m batch_workday_1hr batch_workday_3hr batch_workday_6hr batch_workday_12hr batch_workday_2400 batch_weekend_2400 batch_monthend_2400 batch_yearend_2400 </a:t>
+            <a:t>service batch_1m batch_15m batch_30m batch_1hr batch_3hr batch_6hr batch_12hr batch_day_2400 batch_workday_1m batch_workday_15m batch_workday_30m batch_workday_1hr batch_workday_3hr batch_workday_6hr batch_workday_12hr batch_workday_2400 batch_weekend_2400 batch_monthend_2400 batch_yearend_2400 </a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" sz="1100">
             <a:solidFill>
@@ -2034,13 +5110,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>231641</xdr:colOff>
+      <xdr:colOff>254053</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>616462</xdr:colOff>
+      <xdr:colOff>638874</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>21925</xdr:rowOff>
     </xdr:to>
@@ -2051,7 +5127,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1598759" y="1230565"/>
+          <a:off x="1621171" y="1230565"/>
           <a:ext cx="1751938" cy="225713"/>
           <a:chOff x="1674478" y="3981290"/>
           <a:chExt cx="1745536" cy="223311"/>
@@ -2282,15 +5358,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>409519</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>10367</xdr:rowOff>
+      <xdr:colOff>420725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>77603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2299,7 +5375,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="409519" y="8078602"/>
+          <a:off x="420725" y="6890779"/>
           <a:ext cx="1024834" cy="280986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2341,14 +5417,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>164406</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>42741</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>549227</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>89160</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156395</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2357,7 +5433,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1531524" y="8110976"/>
+          <a:off x="1531524" y="6923153"/>
           <a:ext cx="1751938" cy="225713"/>
           <a:chOff x="1674478" y="3981290"/>
           <a:chExt cx="1745536" cy="223311"/>
@@ -2473,15 +5549,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>171871</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>86469</xdr:rowOff>
+      <xdr:colOff>149459</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>164910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571502</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:colOff>549090</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2490,7 +5566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1538989" y="8333998"/>
+          <a:off x="1516577" y="7157381"/>
           <a:ext cx="1766748" cy="249708"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2550,15 +5626,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:colOff>123266</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>280149</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>291355</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2567,7 +5643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1479178" y="8796617"/>
+          <a:off x="1490384" y="7608794"/>
           <a:ext cx="1535206" cy="302559"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3146,7 +6222,7 @@
   <dimension ref="A4:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3185,10 +6261,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G1:Z23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="12" width="9" style="13"/>
+    <col min="13" max="26" width="9" style="14"/>
+    <col min="27" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G1" s="15"/>
+    </row>
+    <row r="23" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J11:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3208,22 +6310,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F34"/>
+  <dimension ref="A4:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="3.375" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="66.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3232,7 +6330,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -3243,7 +6341,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -3253,209 +6351,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
-      <c r="C31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="17"/>
-      <c r="C32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
-      <c r="C33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
-      <c r="C34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="21"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F30"/>
+  <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D30"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3608,8 +6514,8 @@
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>31</v>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
@@ -3667,6 +6573,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/SMS.XLSX
+++ b/doc/SMS.XLSX
@@ -464,13 +464,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -481,8 +481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1762125" y="4953000"/>
-          <a:ext cx="1019176" cy="609600"/>
+          <a:off x="1600200" y="4953000"/>
+          <a:ext cx="1181100" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -564,16 +564,23 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>presend.php</a:t>
+            <a:t>smsservice.php</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH">
             <a:solidFill>
@@ -922,16 +929,23 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>presend.php</a:t>
+            <a:t>smsservice.php</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" b="1">
             <a:solidFill>
@@ -1024,7 +1038,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1044,8 +1058,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781301" y="5257800"/>
-          <a:ext cx="600072" cy="1"/>
+          <a:off x="2781300" y="5257800"/>
+          <a:ext cx="600073" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1438,16 +1452,23 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>presend.php</a:t>
+            <a:t>smsservice.php</a:t>
           </a:r>
           <a:endParaRPr lang="th-TH" b="1">
             <a:solidFill>
@@ -2078,7 +2099,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -2093,7 +2114,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="1003743" y="5257800"/>
-          <a:ext cx="758382" cy="1"/>
+          <a:ext cx="596457" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2930,13 +2951,29 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="70AD47">
+                    <a:lumMod val="75000"/>
+                  </a:srgbClr>
                 </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>presend.php</a:t>
+              <a:t>smsservice.php</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3014,16 +3051,23 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="70AD47">
+                    <a:lumMod val="75000"/>
+                  </a:srgbClr>
                 </a:solidFill>
                 <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>presend.php</a:t>
+              <a:t>smsservice.php</a:t>
             </a:r>
             <a:endParaRPr lang="th-TH">
               <a:solidFill>
@@ -6264,7 +6308,7 @@
   <dimension ref="G1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/SMS.XLSX
+++ b/doc/SMS.XLSX
@@ -355,7 +355,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3463,7 +3466,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
